--- a/experiment_record/CIFAR10.xlsx
+++ b/experiment_record/CIFAR10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6373A27-CCC3-4B82-A997-9786D80637B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6B95E-0CD7-4C88-B43F-8C4BB7866DCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,9 +511,13 @@
     <col min="16" max="16" width="9" style="1"/>
     <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="26" max="27" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +572,35 @@
       <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
@@ -624,8 +655,45 @@
       <c r="S2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -656,8 +724,24 @@
       <c r="N4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>50</v>
+      </c>
+      <c r="X4" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -689,8 +773,34 @@
         <v>0</v>
       </c>
       <c r="O5" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -709,8 +819,22 @@
       <c r="N7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -735,8 +859,34 @@
       <c r="N8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,8 +899,20 @@
       <c r="L10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -763,8 +925,20 @@
       <c r="L11" s="1">
         <v>144.50773027853799</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U11" s="1">
+        <v>10</v>
+      </c>
+      <c r="V11" s="1">
+        <v>208.76158843977299</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -777,8 +951,20 @@
       <c r="L12" s="1">
         <v>120.481588352392</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U12" s="1">
+        <v>20</v>
+      </c>
+      <c r="V12" s="1">
+        <v>136.89903897525301</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>30</v>
       </c>
@@ -791,8 +977,20 @@
       <c r="L13" s="1">
         <v>117.513447871176</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U13" s="1">
+        <v>30</v>
+      </c>
+      <c r="V13" s="1">
+        <v>113.30077462045401</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>40</v>
       </c>
@@ -805,8 +1003,20 @@
       <c r="L14" s="1">
         <v>103.725059425342</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U14" s="1">
+        <v>40</v>
+      </c>
+      <c r="V14" s="1">
+        <v>111.99112214148801</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>50</v>
       </c>
@@ -819,8 +1029,20 @@
       <c r="L15" s="1">
         <v>96.241429024961704</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U15" s="1">
+        <v>50</v>
+      </c>
+      <c r="V15" s="1">
+        <v>107.79774428995</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>60</v>
       </c>
@@ -833,8 +1055,20 @@
       <c r="L16" s="1">
         <v>83.937028122940902</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U16" s="1">
+        <v>60</v>
+      </c>
+      <c r="V16" s="1">
+        <v>97.196000353470694</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>70</v>
       </c>
@@ -847,8 +1081,22 @@
       <c r="L17" s="1">
         <v>80.394178874497101</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U17" s="1">
+        <v>70</v>
+      </c>
+      <c r="V17" s="1">
+        <v>230.32326235711</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>80</v>
       </c>
@@ -864,8 +1112,20 @@
       <c r="M18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U18" s="1">
+        <v>80</v>
+      </c>
+      <c r="V18" s="1">
+        <v>218.76416309655301</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>90</v>
       </c>
@@ -878,8 +1138,20 @@
       <c r="L19" s="1">
         <v>288.620380393613</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U19" s="1">
+        <v>90</v>
+      </c>
+      <c r="V19" s="1">
+        <v>165.362105286001</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>100</v>
       </c>
@@ -892,8 +1164,20 @@
       <c r="L20" s="1">
         <v>226.319228013616</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U20" s="1">
+        <v>100</v>
+      </c>
+      <c r="V20" s="1">
+        <v>169.37746483844001</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>110</v>
       </c>
@@ -906,8 +1190,20 @@
       <c r="L21" s="1">
         <v>309.74214043535</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U21" s="1">
+        <v>110</v>
+      </c>
+      <c r="V21" s="1">
+        <v>226.037905415811</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>120</v>
       </c>
@@ -920,8 +1216,20 @@
       <c r="L22" s="1">
         <v>284.4911926648</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U22" s="1">
+        <v>120</v>
+      </c>
+      <c r="V22" s="1">
+        <v>266.52998765404902</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>130</v>
       </c>
@@ -934,8 +1242,20 @@
       <c r="L23" s="1">
         <v>276.315525754296</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U23" s="1">
+        <v>130</v>
+      </c>
+      <c r="V23" s="1">
+        <v>310.79768049627802</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>140</v>
       </c>
@@ -948,8 +1268,20 @@
       <c r="L24" s="1">
         <v>303.94714817483299</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U24" s="1">
+        <v>140</v>
+      </c>
+      <c r="V24" s="1">
+        <v>336.76899800435399</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>150</v>
       </c>
@@ -962,8 +1294,20 @@
       <c r="L25" s="1">
         <v>331.24411262445</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="U25" s="1">
+        <v>150</v>
+      </c>
+      <c r="V25" s="1">
+        <v>313.55971188707798</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>160</v>
       </c>
@@ -971,7 +1315,7 @@
         <v>56.657214128749501</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>170</v>
       </c>
@@ -979,7 +1323,7 @@
         <v>62.621346017415902</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>180</v>
       </c>
@@ -987,7 +1331,7 @@
         <v>56.827881841644299</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>190</v>
       </c>
@@ -995,7 +1339,7 @@
         <v>62.194851185373501</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>200</v>
       </c>
@@ -1003,7 +1347,7 @@
         <v>62.702764220205303</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>210</v>
       </c>
@@ -1011,7 +1355,7 @@
         <v>61.242683538998399</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>220</v>
       </c>
